--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1201.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1201.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7862691621635702</v>
+        <v>1.169685244560242</v>
       </c>
       <c r="B1">
-        <v>1.467858632936962</v>
+        <v>2.440001010894775</v>
       </c>
       <c r="C1">
-        <v>5.554644175428426</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.161618179214076</v>
+        <v>2.362849712371826</v>
       </c>
       <c r="E1">
-        <v>1.486930938107311</v>
+        <v>1.238023042678833</v>
       </c>
     </row>
   </sheetData>
